--- a/biology/Botanique/Oponce_à_épines_nombreuses/Oponce_à_épines_nombreuses.xlsx
+++ b/biology/Botanique/Oponce_à_épines_nombreuses/Oponce_à_épines_nombreuses.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Oponce_%C3%A0_%C3%A9pines_nombreuses</t>
+          <t>Oponce_à_épines_nombreuses</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Opuntia polyacantha est une espèce de plantes de la famille des Cactaceae. Il est largement répandu dans l'Ouest des États-Unis et le sud du Canada.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Oponce_%C3%A0_%C3%A9pines_nombreuses</t>
+          <t>Oponce_à_épines_nombreuses</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,12 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Cette plante buissonnante forme des touffes de cladodes aplatis, de forme presque ovale, et couverts d'épines. Ces touffes peuvent atteindre 3 mètres de diamètre mais ne dépassent pas 15 cm de haut. Les cladodes de couleur glauque (vert-bleuté) mesurent de 5 à 12 cm de long et 4 à 10 cm de large. Ils portent des épines blanches, un peu jaunâtres, de 5 à 7,5 cm de longueur, par paquets de 6 à 10[1]. Les glochides sont jaunes et presque invisibles.
-Appareil reproducteur
-La floraison a lieu entre mai et juillet.
-Les fleurs apparaissent sur la bordure supérieur des cladodes. Elles sont de couleur vive, jaunes ou rouges selon les variétés. Mesurant de 5 à 7,5 cm de diamètre, elles sont constituées de nombreux tépales.
-Le fruit, de forme ovoïde, mesure de 2 à 4 cm dans la longueur. Il est marron à maturité[1].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante buissonnante forme des touffes de cladodes aplatis, de forme presque ovale, et couverts d'épines. Ces touffes peuvent atteindre 3 mètres de diamètre mais ne dépassent pas 15 cm de haut. Les cladodes de couleur glauque (vert-bleuté) mesurent de 5 à 12 cm de long et 4 à 10 cm de large. Ils portent des épines blanches, un peu jaunâtres, de 5 à 7,5 cm de longueur, par paquets de 6 à 10. Les glochides sont jaunes et presque invisibles.
 </t>
         </is>
       </c>
@@ -529,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Oponce_%C3%A0_%C3%A9pines_nombreuses</t>
+          <t>Oponce_à_épines_nombreuses</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,12 +557,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Répartition et habitat</t>
+          <t>Description morphologique</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cette plante pousse dans les zones dégagées des plaines et des déserts du sud-ouest du Canada et de l'ouest des États-Unis. Son aire de répartition s'étend, au nord, de la Colombie-Britannique au centre du Canada, et va vers le sud de l'Oregon et l'Arizona jusqu'au Texas et au Missouri.
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison a lieu entre mai et juillet.
+Les fleurs apparaissent sur la bordure supérieur des cladodes. Elles sont de couleur vive, jaunes ou rouges selon les variétés. Mesurant de 5 à 7,5 cm de diamètre, elles sont constituées de nombreux tépales.
+Le fruit, de forme ovoïde, mesure de 2 à 4 cm dans la longueur. Il est marron à maturité.
 </t>
         </is>
       </c>
@@ -560,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Oponce_%C3%A0_%C3%A9pines_nombreuses</t>
+          <t>Oponce_à_épines_nombreuses</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,12 +596,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Rôle écologique</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sa tendance à remplacer l'herbe dans les zones pâturées en fait une nuisance pour le bétail élevé en liberté. Les cladodes ont en effet tendance à se casser et à se planter dans le museau et la gorge des grands herbivores[1].
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante pousse dans les zones dégagées des plaines et des déserts du sud-ouest du Canada et de l'ouest des États-Unis. Son aire de répartition s'étend, au nord, de la Colombie-Britannique au centre du Canada, et va vers le sud de l'Oregon et l'Arizona jusqu'au Texas et au Missouri.
 </t>
         </is>
       </c>
@@ -591,7 +614,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Oponce_%C3%A0_%C3%A9pines_nombreuses</t>
+          <t>Oponce_à_épines_nombreuses</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,16 +629,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Systématique</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Variétés
-Opuntia polyacantha var. polyacantha
-Opuntia polycantha var. erinacea
-Opuntia polyacantha var. hystricina
-Opuntia polyacantha var. nicholii</t>
+          <t>Rôle écologique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa tendance à remplacer l'herbe dans les zones pâturées en fait une nuisance pour le bétail élevé en liberté. Les cladodes ont en effet tendance à se casser et à se planter dans le museau et la gorge des grands herbivores.
+</t>
         </is>
       </c>
     </row>
@@ -625,7 +647,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Oponce_%C3%A0_%C3%A9pines_nombreuses</t>
+          <t>Oponce_à_épines_nombreuses</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -640,12 +662,53 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Variétés</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Opuntia polyacantha var. polyacantha
+Opuntia polycantha var. erinacea
+Opuntia polyacantha var. hystricina
+Opuntia polyacantha var. nicholii</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Oponce_à_épines_nombreuses</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oponce_%C3%A0_%C3%A9pines_nombreuses</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Culture</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plante extrêmement résistante au froid[2], en particulier les écotypes du Canada et de haute altitude. Zone 4.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante extrêmement résistante au froid, en particulier les écotypes du Canada et de haute altitude. Zone 4.
 </t>
         </is>
       </c>
